--- a/correlations.xlsx
+++ b/correlations.xlsx
@@ -1,350 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0fe618236c9efd77/Desktop/Wellbeing/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_5CA582FCF27B0822492C4C2B3DEA30A178786140" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85DC3909-F547-47DC-8C60-18081C0540F3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="106">
-  <si>
-    <t>StuOs. As we are currently only interested in Cognitive Science students at the Osnarück University, please indicate wich study programm you are currently enrolled in.</t>
-  </si>
-  <si>
-    <t>LSTestQ5[SQ002]. (If applicable) Here and now, I feel satisfied [with my family life.]</t>
-  </si>
-  <si>
-    <t>LSTestQ5[SQ003]. (If applicable) Here and now, I feel satisfied [with my relationship/marriage.]</t>
-  </si>
-  <si>
-    <t>LSTestQ5[SQ004]. (If applicable) Here and now, I feel satisfied [with my job.]</t>
-  </si>
-  <si>
-    <t>LSTestQ5[SQ005]. (If applicable) Here and now, I feel satisfied [with my education.]</t>
-  </si>
-  <si>
-    <t>PuLQ1. Right now, I have </t>
-  </si>
-  <si>
-    <t>mood. Here and now, I feel</t>
-  </si>
-  <si>
-    <t>LSTestQ4LRITestQ1[SQ002]. Here and now, to what degree you agree with the statements below? [I feel satisfied with my life.]</t>
-  </si>
-  <si>
-    <t>LSTestQ4LRITestQ1[SQ001]. Here and now, to what degree you agree with the statements below? [I don’t seem to be able to accomplish those things that are really important to me.]</t>
-  </si>
-  <si>
-    <t>LSTestQ4LRITestQ1[SQ003]. Here and now, to what degree you agree with the statements below? [I am pleased with the social life I lead.]</t>
-  </si>
-  <si>
-    <t>LSTestQ4LRITestQ1[SQ004]. Here and now, to what degree you agree with the statements below? [I am satisfied with my person or self as an individual.]</t>
-  </si>
-  <si>
-    <t>LSTestQ4LRITestQ1[SQ005]. Here and now, to what degree you agree with the statements below? [I consider my physical appearance excellent.]</t>
-  </si>
-  <si>
-    <t>LSTestQ4LRITestQ1[SQ006]. Here and now, to what degree you agree with the statements below? [I have a clear idea of what I’d like to do with my life.]</t>
-  </si>
-  <si>
-    <t>LSTestQ4LRITestQ1[SQ007]. Here and now, to what degree you agree with the statements below? [I feel that I am living fully.]</t>
-  </si>
-  <si>
-    <t>LSTestQ4LRITestQ1[SQ008]. Here and now, to what degree you agree with the statements below? [I just don’t know what I really want to do with my life.]</t>
-  </si>
-  <si>
-    <t>LSTestQ27Q33[SQ002]. Here and now, to what degree do you agree with the statements below? [I feel joyful.]</t>
-  </si>
-  <si>
-    <t>LSTestQ27Q33[SQ003]. Here and now, to what degree do you agree with the statements below? [I feel positive.]</t>
-  </si>
-  <si>
-    <t>LSTestQ27Q33[SQ004]. Here and now, to what degree do you agree with the statements below? [I feel contented.]</t>
-  </si>
-  <si>
-    <t>LSTestQ27Q33[SQ005]. Here and now, to what degree do you agree with the statements below? [I feel angry.]</t>
-  </si>
-  <si>
-    <t>LSTestQ27Q33[SQ007]. Here and now, to what degree do you agree with the statements below? [I feel anxious.]</t>
-  </si>
-  <si>
-    <t>LSTestQ27Q33[SQ006]. Here and now, to what degree do you agree with the statements below? [I feel sad.]</t>
-  </si>
-  <si>
-    <t>SoCQ4. The things I did today had</t>
-  </si>
-  <si>
-    <t>PuLQ2. I consider my individual being</t>
-  </si>
-  <si>
-    <t>PuLQ3. In reaching my life aims, I feel like</t>
-  </si>
-  <si>
-    <t>PuLQ4. I feel like there is</t>
-  </si>
-  <si>
-    <t>SoCo6. ... , I have the feeling that I've been treated unfairly.</t>
-  </si>
-  <si>
-    <t>SoCo7. Doing the things I do every day is</t>
-  </si>
-  <si>
-    <t>SoCo11SoCQ6. When something happened‚ I have generally found that</t>
-  </si>
-  <si>
-    <t>SoCo12. ... , I have the feeling there is a lot of meaning in the things I do in my daily life.</t>
-  </si>
-  <si>
-    <t>SoCQ1N[SQ002]. Choose the tendency best describing your current experience.  Here and now, ... [I have the feeling I don't really care about what is happening around me.]</t>
-  </si>
-  <si>
-    <t>SoCQ1N[SQ003]. Choose the tendency best describing your current experience.  Here and now, ... [I feel negatively surprised by someone I thought I knew well.]</t>
-  </si>
-  <si>
-    <t>SoCQ1N[SQ001]. Choose the tendency best describing your current experience.  Here and now, ... [I feel disapointed by someone I counted on.]</t>
-  </si>
-  <si>
-    <t>SoCQ1N[SQ004]. Choose the tendency best describing your current experience.  Here and now, ... [I have the feeling others treated me unfairly.]</t>
-  </si>
-  <si>
-    <t>SoCQ1N[SQ005]. Choose the tendency best describing your current experience.  Here and now, ... [I have the feeling I am in an unfamiliar situation and don't know what to do.]</t>
-  </si>
-  <si>
-    <t>SoCQ1N[SQ006]. Choose the tendency best describing your current experience.  Here and now, ... [I experience emotions I'd rather not feel.]</t>
-  </si>
-  <si>
-    <t>SoCQ1N[SQ007]. Choose the tendency best describing your current experience.  Here and now, ... [I feel like I lost hope.]</t>
-  </si>
-  <si>
-    <t>SoCQ1N[SQ008]. Choose the tendency best describing your current experience.  Here and now, ... [I feel like the things I do in my daily life have no meaning at all.]</t>
-  </si>
-  <si>
-    <t>SoCQ1N[SQ009]. Choose the tendency best describing your current experience.  Here and now, ... [I experience a feeling and I'm not sure whether I can keep it under control.]</t>
-  </si>
-  <si>
-    <t>CompN. Compared to prior to the study, right now I feel</t>
-  </si>
-  <si>
-    <t>SoCQ1P[SQ001]. Choose the tendency best describing your current experience.  Here and now, ... [I have the feeling I really care about what is happening around me.]</t>
-  </si>
-  <si>
-    <t>SoCQ1P[SQ002]. Choose the tendency best describing your current experience.  Here and now, ... [I feel contented by someone I countedd on.]</t>
-  </si>
-  <si>
-    <t>SoCQ1P[SQ003]. Choose the tendency best describing your current experience.  Here and now, ... [I feel positively surprized by someone I thought I knew well.]</t>
-  </si>
-  <si>
-    <t>SoCQ1P[SQ004]. Choose the tendency best describing your current experience.  Here and now, ... [I have the feeling others treated me fairly.]</t>
-  </si>
-  <si>
-    <t>SoCQ1P[SQ005]. Choose the tendency best describing your current experience.  Here and now, ... [I have the feeling I am in an unfamiliar situation and know what to do.]</t>
-  </si>
-  <si>
-    <t>SoCQ1P[SQ006]. Choose the tendency best describing your current experience.  Here and now, ... [I experience emotions I can accept to feel.]</t>
-  </si>
-  <si>
-    <t>SoCQ1P[SQ007]. Choose the tendency best describing your current experience.  Here and now, ... [I feel hopeful.]</t>
-  </si>
-  <si>
-    <t>SoCQ1P[SQ008]. Choose the tendency best describing your current experience.  Here and now, ... [I feel like the things I do in my daily life have a lot of meaning.]</t>
-  </si>
-  <si>
-    <t>SoCQ1P[SQ009]. Choose the tendency best describing your current experience.  Here and now, ... [I experience a feeling and I'm sure I can keep it under control.]</t>
-  </si>
-  <si>
-    <t>CompP. Compared to prior to the study, right now I feel</t>
-  </si>
-  <si>
-    <t>ActPri[SQ001]. In the hour before the study, I have pursued the following activities  (choose all applicable) [interacted with my family]</t>
-  </si>
-  <si>
-    <t>ActPri[SQ002]. In the hour before the study, I have pursued the following activities  (choose all applicable) [interacted with my friends]</t>
-  </si>
-  <si>
-    <t>ActPri[SQ003]. In the hour before the study, I have pursued the following activities  (choose all applicable) [visited a lecture/seminar]</t>
-  </si>
-  <si>
-    <t>ActPri[SQ004]. In the hour before the study, I have pursued the following activities  (choose all applicable) [practiced  meditation or similar]</t>
-  </si>
-  <si>
-    <t>ActPri[SQ005]. In the hour before the study, I have pursued the following activities  (choose all applicable) [went for a walk]</t>
-  </si>
-  <si>
-    <t>ActPri[SQ006]. In the hour before the study, I have pursued the following activities  (choose all applicable) [listened to music/podcasts/audiobooks or similar]</t>
-  </si>
-  <si>
-    <t>ActPri[SQ007]. In the hour before the study, I have pursued the following activities  (choose all applicable) [done sports]</t>
-  </si>
-  <si>
-    <t>ActPri[SQ009]. In the hour before the study, I have pursued the following activities  (choose all applicable) [played an instrument]</t>
-  </si>
-  <si>
-    <t>ActPri[SQ010]. In the hour before the study, I have pursued the following activities  (choose all applicable) [read a book]</t>
-  </si>
-  <si>
-    <t>ActPri[SQ011]. In the hour before the study, I have pursued the following activities  (choose all applicable) [cooked a meal]</t>
-  </si>
-  <si>
-    <t>ActPri[SQ012]. In the hour before the study, I have pursued the following activities  (choose all applicable) [eaten a snack]</t>
-  </si>
-  <si>
-    <t>ActPri[SQ014]. In the hour before the study, I have pursued the following activities  (choose all applicable) [had a conflict]</t>
-  </si>
-  <si>
-    <t>ActPri[SQ015]. In the hour before the study, I have pursued the following activities  (choose all applicable) [pursued paid work]</t>
-  </si>
-  <si>
-    <t>ActPri[SQ016]. In the hour before the study, I have pursued the following activities  (choose all applicable) [pursued care work]</t>
-  </si>
-  <si>
-    <t>ActPri[SQ017]. In the hour before the study, I have pursued the following activities  (choose all applicable) [pursued academic work]</t>
-  </si>
-  <si>
-    <t>ActPri[SQ018]. In the hour before the study, I have pursued the following activities  (choose all applicable) [browsed online]</t>
-  </si>
-  <si>
-    <t>ActPri[SQ019]. In the hour before the study, I have pursued the following activities  (choose all applicable) [played a video game]</t>
-  </si>
-  <si>
-    <t>ActPri[SQ020]. In the hour before the study, I have pursued the following activities  (choose all applicable) [showered]</t>
-  </si>
-  <si>
-    <t>ActPri[SQ021]. In the hour before the study, I have pursued the following activities  (choose all applicable) [taken a bath]</t>
-  </si>
-  <si>
-    <t>ActPri[SQ022]. In the hour before the study, I have pursued the following activities  (choose all applicable) [tidied my room/apartment]</t>
-  </si>
-  <si>
-    <t>ActPri[SQ023]. In the hour before the study, I have pursued the following activities  (choose all applicable) [spend some quiet time alone]</t>
-  </si>
-  <si>
-    <t>ActPri[SQ024]. In the hour before the study, I have pursued the following activities  (choose all applicable) [went out for a meal by myself]</t>
-  </si>
-  <si>
-    <t>ActPri[SQ025]. In the hour before the study, I have pursued the following activities  (choose all applicable) [went out for a meal with a family member, friend, colleauge or similar]</t>
-  </si>
-  <si>
-    <t>ActPri[SQ027]. In the hour before the study, I have pursued the following activities  (choose all applicable) [spent time in nature]</t>
-  </si>
-  <si>
-    <t>peoplePri[SQ002]. In the past hour before this survey, I have interacted with...  (choose all applicable) [family members]</t>
-  </si>
-  <si>
-    <t>peoplePri[SQ003]. In the past hour before this survey, I have interacted with...  (choose all applicable) [friends]</t>
-  </si>
-  <si>
-    <t>peoplePri[SQ004]. In the past hour before this survey, I have interacted with...  (choose all applicable) [co-workers]</t>
-  </si>
-  <si>
-    <t>peoplePri[SQ005]. In the past hour before this survey, I have interacted with...  (choose all applicable) [flat-mates]</t>
-  </si>
-  <si>
-    <t>peoplePri[SQ007]. In the past hour before this survey, I have interacted with...  (choose all applicable) [strangers]</t>
-  </si>
-  <si>
-    <t>PHQ9[SQ002]. Over the last two weeks, how often have you been bothered by any of the following problems? [Little interest or pleasure in doing things.]</t>
-  </si>
-  <si>
-    <t>PHQ9[SQ003]. Over the last two weeks, how often have you been bothered by any of the following problems? [Feeling down, depressed, or hopeless.]</t>
-  </si>
-  <si>
-    <t>PHQ9[SQ004]. Over the last two weeks, how often have you been bothered by any of the following problems? [Trouble falling or staying asleep, or sleeping too much.]</t>
-  </si>
-  <si>
-    <t>PHQ9[SQ005]. Over the last two weeks, how often have you been bothered by any of the following problems? [Feeling tired or having little energy.]</t>
-  </si>
-  <si>
-    <t>PHQ9[SQ006]. Over the last two weeks, how often have you been bothered by any of the following problems? [Poor appetite or overeating.]</t>
-  </si>
-  <si>
-    <t>PHQ9[SQ007]. Over the last two weeks, how often have you been bothered by any of the following problems? [Feeling bad about yourself - or that you are a failure or have let yourself or your family down.]</t>
-  </si>
-  <si>
-    <t>PHQ9[SQ008]. Over the last two weeks, how often have you been bothered by any of the following problems? [Trouble concentrating on things, such as reading the newspaper or watching television.]</t>
-  </si>
-  <si>
-    <t>PHQ9[SQ009]. Over the last two weeks, how often have you been bothered by any of the following problems? [Moving or speaking so slowly that other people could have noticed.]</t>
-  </si>
-  <si>
-    <t>PHQ9[SQ011]. Over the last two weeks, how often have you been bothered by any of the following problems? [Being so fidgety or restless that you have been moving around a lot more than usual.]</t>
-  </si>
-  <si>
-    <t>PHQ9[SQ010]. Over the last two weeks, how often have you been bothered by any of the following problems? [Thoughts that you would be better off dead, or of hurting yourself in some way.]</t>
-  </si>
-  <si>
-    <t>WHO5[SQ001]. Over the last two weeks [I have felt cheerful and in good spirits]</t>
-  </si>
-  <si>
-    <t>WHO5[SQ002]. Over the last two weeks [I have felt calm and relaxed]</t>
-  </si>
-  <si>
-    <t>WHO5[SQ003]. Over the last two weeks [I have felt active and vigorous]</t>
-  </si>
-  <si>
-    <t>WHO5[SQ004]. Over the last two weeks [I woke up feeling fresh and rested]</t>
-  </si>
-  <si>
-    <t>Age. Which year were you born in? </t>
-  </si>
-  <si>
-    <t>Activity[SQ003]. Which of these options best describe(s) your professional status? [Full-time student]</t>
-  </si>
-  <si>
-    <t>Activity[SQ004]. Which of these options best describe(s) your professional status? [Part-time student]</t>
-  </si>
-  <si>
-    <t>Activity[SQ006]. Which of these options best describe(s) your professional status? [Part-time job]</t>
-  </si>
-  <si>
-    <t>Activity[SQ007]. Which of these options best describe(s) your professional status? [Intrnship]</t>
-  </si>
-  <si>
-    <t>Psy[SQ013]. Are you currently diagnosed and/or struggling with any of these conditions? (Classification according to ICD-10)   [F10-F19 Mental and behavioral disorders due to psychoactive substance use (e.g. due to cannabis, alcohol, opioids)]</t>
-  </si>
-  <si>
-    <t>Psy[SQ003]. Are you currently diagnosed and/or struggling with any of these conditions? (Classification according to ICD-10)   [F30-F39 Mood [affective] disorders (e.g. manic episode, bipolar disorder, major depressive disorder)]</t>
-  </si>
-  <si>
-    <t>Psy[SQ004]. Are you currently diagnosed and/or struggling with any of these conditions? (Classification according to ICD-10)   [F40-F48 Anxiety, dissociative, stress-related, somatoform and other nonpsychotic mental disorders (e.g. Phobic anxiety disorders, Obsessive-compulsive disorder, Dissociative and conversion disorders)]</t>
-  </si>
-  <si>
-    <t>Psy[SQ005]. Are you currently diagnosed and/or struggling with any of these conditions? (Classification according to ICD-10)   [F50-F59 Behavioral syndromes associated with physiological disturbances and physical factors (e.g. Eating disorders, Sleep disorders, Sexual dysfunction)]</t>
-  </si>
-  <si>
-    <t>Psy[SQ006]. Are you currently diagnosed and/or struggling with any of these conditions? (Classification according to ICD-10)   [F60-F69 Disorders of adult personality and behavior (e.g. Specific personality disorders, Impulse disorders, Gender identity disorders)]</t>
-  </si>
-  <si>
-    <t>Psy[SQ009]. Are you currently diagnosed and/or struggling with any of these conditions? (Classification according to ICD-10)   [F90-F98 Behavioral and emotional disorders with onset usually occurring in childhood and adolescence (Attention-deficit hyperactivity disorders, Conduct disorders, Tic disorder)]</t>
-  </si>
-  <si>
-    <t>Psy[SQ010]. Are you currently diagnosed and/or struggling with any of these conditions? (Classification according to ICD-10)   [F99-F99 Unspecified mental disorder]</t>
-  </si>
-  <si>
-    <t>Psy[SQ011]. Are you currently diagnosed and/or struggling with any of these conditions? (Classification according to ICD-10)   [Not applicable]</t>
-  </si>
-  <si>
-    <t>Psy[SQ012]. Are you currently diagnosed and/or struggling with any of these conditions? (Classification according to ICD-10)   [Prefer not to answer]</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,38 +67,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office 2007–2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -465,7 +122,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office 2007–2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -499,7 +156,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -534,10 +190,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office 2007–2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -710,1469 +365,1386 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DC107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="78.33203125" style="2" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:107" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:107">
+      <c r="B1" s="1">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="1">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="1">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="1">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="1">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="1">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="1">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="1">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="1">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="1">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="1">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="1">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="1">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="1">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="1">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="1">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="1">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="1">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="1">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="1">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="1">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="1">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="1">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="1">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="1">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="1">
         <v>32</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="1">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="1">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="1">
         <v>35</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="1">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="1">
         <v>37</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="1">
         <v>38</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="1">
         <v>39</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="1">
         <v>40</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="1">
         <v>41</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="1">
         <v>42</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="1">
         <v>43</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="1">
         <v>44</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="1">
         <v>45</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="1">
         <v>46</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="1">
         <v>47</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="1">
         <v>48</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="1">
         <v>49</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="1">
         <v>50</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BA1" s="1">
         <v>51</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BB1" s="1">
         <v>52</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BC1" s="1">
         <v>53</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BD1" s="1">
         <v>54</v>
       </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BE1" s="1">
         <v>56</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BF1" s="1">
         <v>57</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BG1" s="1">
         <v>58</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BH1" s="1">
         <v>59</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BI1" s="1">
         <v>60</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BJ1" s="1">
         <v>61</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BK1" s="1">
         <v>62</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BL1" s="1">
         <v>63</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BM1" s="1">
         <v>64</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BN1" s="1">
         <v>65</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BO1" s="1">
         <v>66</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BP1" s="1">
         <v>67</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BQ1" s="1">
         <v>68</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BR1" s="1">
         <v>69</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BS1" s="1">
         <v>70</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BT1" s="1">
         <v>71</v>
       </c>
-      <c r="BV1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BU1" s="1">
         <v>73</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BV1" s="1">
         <v>74</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BW1" s="1">
         <v>75</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="BX1" s="1">
         <v>76</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="BY1" s="1">
         <v>77</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="BZ1" s="1">
         <v>78</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CA1" s="1">
         <v>79</v>
       </c>
-      <c r="CD1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CB1" s="1">
         <v>82</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CC1" s="1">
         <v>83</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CD1" s="1">
         <v>84</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CE1" s="1">
         <v>85</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CF1" s="1">
         <v>86</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CG1" s="1">
         <v>87</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CH1" s="1">
         <v>88</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CI1" s="1">
         <v>89</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CJ1" s="1">
         <v>90</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CK1" s="1">
         <v>91</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CL1" s="1">
         <v>92</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CM1" s="1">
         <v>93</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CN1" s="1">
         <v>94</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CO1" s="1">
         <v>95</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CP1" s="1">
         <v>96</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CQ1" s="1">
         <v>97</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CR1" s="1">
         <v>98</v>
       </c>
-      <c r="CW1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CS1" s="1">
         <v>100</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="CT1" s="1">
         <v>101</v>
       </c>
-      <c r="CZ1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DA1" s="1" t="s">
+      <c r="CU1" s="1">
         <v>103</v>
       </c>
-      <c r="DB1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DC1" s="1" t="s">
+      <c r="CV1" s="1">
         <v>105</v>
       </c>
-    </row>
-    <row r="2" spans="1:107" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="CW1" s="1">
+        <v>106</v>
+      </c>
+      <c r="CX1" s="1">
+        <v>107</v>
+      </c>
+      <c r="CY1" s="1">
+        <v>108</v>
+      </c>
+      <c r="CZ1" s="1">
+        <v>111</v>
+      </c>
+      <c r="DA1" s="1">
+        <v>112</v>
+      </c>
+      <c r="DB1" s="1">
+        <v>113</v>
+      </c>
+      <c r="DC1" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:107">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:107" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:107">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="AA3">
-        <v>0.61916481134770196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:107" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    </row>
+    <row r="4" spans="1:107">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:107" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:107">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:107" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:107">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:107" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:107">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:107" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:107">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="R8">
-        <v>0.67043306931881164</v>
+        <v>0.6365381972150619</v>
+      </c>
+      <c r="S8">
+        <v>0.6132586129442053</v>
       </c>
       <c r="V8">
-        <v>-0.68237478293914122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:107" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+        <v>-0.6414659948573709</v>
+      </c>
+    </row>
+    <row r="9" spans="1:107">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0.68870300156306441</v>
+        <v>0.7166763574787074</v>
       </c>
       <c r="O9">
-        <v>0.75257471579457247</v>
-      </c>
-      <c r="AT9">
-        <v>0.67716332913752764</v>
-      </c>
-    </row>
-    <row r="10" spans="1:107" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+        <v>0.7755969444111311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:107">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
-      <c r="Y10">
-        <v>-0.64820568011893653</v>
-      </c>
-    </row>
-    <row r="11" spans="1:107" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+    </row>
+    <row r="11" spans="1:107">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:107" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:107">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="I12">
-        <v>0.68870300156306441</v>
+        <v>0.7166763574787074</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="O12">
-        <v>0.62000020683042223</v>
-      </c>
-    </row>
-    <row r="13" spans="1:107" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+        <v>0.6332608480475639</v>
+      </c>
+    </row>
+    <row r="13" spans="1:107">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:107" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:107">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="P14">
-        <v>-0.65030135543368683</v>
-      </c>
-    </row>
-    <row r="15" spans="1:107" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+        <v>-0.6562223562692989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:107">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="I15">
-        <v>0.75257471579457247</v>
+        <v>0.7755969444111311</v>
       </c>
       <c r="L15">
-        <v>0.62000020683042223</v>
+        <v>0.6332608480475639</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:107" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:107">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="N16">
-        <v>-0.65030135543368683</v>
+        <v>-0.6562223562692989</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:90" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:90">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="Q17">
         <v>1</v>
       </c>
       <c r="R17">
-        <v>0.74808396605674909</v>
-      </c>
-      <c r="AU17">
-        <v>0.62213639001179577</v>
-      </c>
-    </row>
-    <row r="18" spans="1:90" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+        <v>0.7162310341964813</v>
+      </c>
+    </row>
+    <row r="18" spans="1:90">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="H18">
-        <v>0.67043306931881164</v>
+        <v>0.6365381972150619</v>
       </c>
       <c r="Q18">
-        <v>0.74808396605674909</v>
+        <v>0.7162310341964813</v>
       </c>
       <c r="R18">
         <v>1</v>
       </c>
       <c r="S18">
-        <v>0.66291703950834702</v>
+        <v>0.6777355571060921</v>
       </c>
       <c r="V18">
-        <v>-0.67587443473666764</v>
-      </c>
-      <c r="AB18">
-        <v>-0.61764661089515449</v>
-      </c>
-      <c r="AK18">
-        <v>-0.60816455399784941</v>
+        <v>-0.648698130076439</v>
       </c>
       <c r="AL18">
-        <v>-0.63293137126966226</v>
+        <v>-0.608408273255472</v>
       </c>
       <c r="AT18">
-        <v>0.66755479981807331</v>
-      </c>
-      <c r="AU18">
-        <v>0.79608917223520748</v>
-      </c>
-      <c r="CC18">
-        <v>-0.61551176413822928</v>
+        <v>0.7797592629489798</v>
       </c>
       <c r="CL18">
-        <v>0.633099783947913</v>
-      </c>
-    </row>
-    <row r="19" spans="1:90" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+        <v>0.606683162428725</v>
+      </c>
+    </row>
+    <row r="19" spans="1:90">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="H19">
+        <v>0.6132586129442053</v>
+      </c>
       <c r="R19">
-        <v>0.66291703950834702</v>
+        <v>0.6777355571060921</v>
       </c>
       <c r="S19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:90" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="V19">
+        <v>-0.6160233111876382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:90">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="T20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:90" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:90">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="U21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:90" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:90">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="H22">
-        <v>-0.68237478293914122</v>
+        <v>-0.6414659948573709</v>
       </c>
       <c r="R22">
-        <v>-0.67587443473666764</v>
+        <v>-0.648698130076439</v>
+      </c>
+      <c r="S22">
+        <v>-0.6160233111876382</v>
       </c>
       <c r="V22">
         <v>1</v>
       </c>
-      <c r="AU22">
-        <v>-0.62428017371967104</v>
-      </c>
-      <c r="CC22">
-        <v>0.61813271351681076</v>
-      </c>
-    </row>
-    <row r="23" spans="1:90" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+    </row>
+    <row r="23" spans="1:90">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="W23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:90" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:90">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="X24">
         <v>1</v>
       </c>
       <c r="Z24">
-        <v>0.65277259586648939</v>
-      </c>
-    </row>
-    <row r="25" spans="1:90" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+        <v>0.6613560291307095</v>
+      </c>
+    </row>
+    <row r="25" spans="1:90">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="J25">
-        <v>-0.64820568011893653</v>
-      </c>
       <c r="Y25">
         <v>1</v>
       </c>
-      <c r="AL25">
-        <v>-0.63621997116936468</v>
-      </c>
-    </row>
-    <row r="26" spans="1:90" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+    </row>
+    <row r="26" spans="1:90">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="X26">
-        <v>0.65277259586648939</v>
+        <v>0.6613560291307095</v>
       </c>
       <c r="Z26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:90" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:90">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="C27">
-        <v>0.61916481134770196</v>
-      </c>
       <c r="AA27">
         <v>1</v>
       </c>
-      <c r="AH27">
-        <v>-0.61703159508797323</v>
-      </c>
-    </row>
-    <row r="28" spans="1:90" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+    </row>
+    <row r="28" spans="1:90">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="R28">
-        <v>-0.61764661089515449</v>
-      </c>
       <c r="AB28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:90" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:90">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="AC29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:90" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:90">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="AD30">
         <v>1</v>
       </c>
-      <c r="AV30">
-        <v>-0.69213396195813492</v>
-      </c>
-    </row>
-    <row r="31" spans="1:90" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="AU30">
+        <v>-0.6681711517182953</v>
+      </c>
+    </row>
+    <row r="31" spans="1:90">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="AE31">
         <v>1</v>
       </c>
-      <c r="AO31">
-        <v>-0.67731738305759392</v>
-      </c>
-    </row>
-    <row r="32" spans="1:90" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="AN31">
+        <v>-0.73804387753986</v>
+      </c>
+    </row>
+    <row r="32" spans="1:90">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="AF32">
         <v>1</v>
       </c>
       <c r="AG32">
-        <v>0.6755826316728939</v>
-      </c>
-      <c r="AH32">
-        <v>0.64519941149883009</v>
-      </c>
-    </row>
-    <row r="33" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+        <v>0.6062695069799401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:81">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="AF33">
-        <v>0.6755826316728939</v>
+        <v>0.6062695069799401</v>
       </c>
       <c r="AG33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:81">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="AA34">
-        <v>-0.61703159508797323</v>
-      </c>
-      <c r="AF34">
-        <v>0.64519941149883009</v>
-      </c>
       <c r="AH34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:81">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="AI35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:81">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="AJ36">
         <v>1</v>
       </c>
       <c r="AM36">
-        <v>0.71976668401737831</v>
-      </c>
-    </row>
-    <row r="37" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+        <v>0.6601823935003379</v>
+      </c>
+    </row>
+    <row r="37" spans="1:81">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="R37">
-        <v>-0.60816455399784941</v>
-      </c>
       <c r="AK37">
         <v>1</v>
       </c>
       <c r="AT37">
-        <v>-0.64369403631215594</v>
-      </c>
-      <c r="AU37">
-        <v>-0.63530134865187626</v>
+        <v>-0.6522523634610914</v>
       </c>
       <c r="CC37">
-        <v>0.6789780359641453</v>
-      </c>
-    </row>
-    <row r="38" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+        <v>0.6230584720662702</v>
+      </c>
+    </row>
+    <row r="38" spans="1:81">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="R38">
-        <v>-0.63293137126966226</v>
-      </c>
-      <c r="Y38">
-        <v>-0.63621997116936468</v>
+        <v>-0.608408273255472</v>
       </c>
       <c r="AL38">
         <v>1</v>
       </c>
       <c r="AU38">
-        <v>-0.60167458969224619</v>
-      </c>
-      <c r="AV38">
-        <v>-0.66986365193710551</v>
-      </c>
-    </row>
-    <row r="39" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+        <v>-0.6490758693711466</v>
+      </c>
+    </row>
+    <row r="39" spans="1:81">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="AJ39">
-        <v>0.71976668401737831</v>
+        <v>0.6601823935003379</v>
       </c>
       <c r="AM39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:81">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
+      <c r="AE40">
+        <v>-0.73804387753986</v>
+      </c>
       <c r="AN40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:81">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="AE41">
-        <v>-0.67731738305759392</v>
-      </c>
       <c r="AO41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:81">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="AP42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:81">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="AQ43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:81">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="AR44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:81">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="AS45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:81">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="I46">
-        <v>0.67716332913752764</v>
-      </c>
       <c r="R46">
-        <v>0.66755479981807331</v>
+        <v>0.7797592629489798</v>
       </c>
       <c r="AK46">
-        <v>-0.64369403631215594</v>
+        <v>-0.6522523634610914</v>
       </c>
       <c r="AT46">
         <v>1</v>
       </c>
-      <c r="AU46">
-        <v>0.65989819003396866</v>
-      </c>
-    </row>
-    <row r="47" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
+      <c r="CC46">
+        <v>-0.6888313029158354</v>
+      </c>
+    </row>
+    <row r="47" spans="1:81">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="Q47">
-        <v>0.62213639001179577</v>
-      </c>
-      <c r="R47">
-        <v>0.79608917223520748</v>
-      </c>
-      <c r="V47">
-        <v>-0.62428017371967104</v>
-      </c>
-      <c r="AK47">
-        <v>-0.63530134865187626</v>
+      <c r="AD47">
+        <v>-0.6681711517182953</v>
       </c>
       <c r="AL47">
-        <v>-0.60167458969224619</v>
-      </c>
-      <c r="AT47">
-        <v>0.65989819003396866</v>
+        <v>-0.6490758693711466</v>
       </c>
       <c r="AU47">
         <v>1</v>
       </c>
-      <c r="CC47">
-        <v>-0.69167957506335165</v>
-      </c>
-    </row>
-    <row r="48" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+    </row>
+    <row r="48" spans="1:81">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="AD48">
-        <v>-0.69213396195813492</v>
-      </c>
-      <c r="AL48">
-        <v>-0.66986365193710551</v>
-      </c>
       <c r="AV48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:76" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:75">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="AW49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:76" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:75">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="AX50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:76" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
+      <c r="BV50">
+        <v>0.9147576778553991</v>
+      </c>
+    </row>
+    <row r="51" spans="1:75">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="AY51">
         <v>1</v>
       </c>
       <c r="BW51">
-        <v>0.89227453519297861</v>
-      </c>
-    </row>
-    <row r="52" spans="1:76" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
+        <v>0.8017608985101162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:75">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="AZ52">
         <v>1</v>
       </c>
-      <c r="BX52">
-        <v>0.80953139498123838</v>
-      </c>
-    </row>
-    <row r="53" spans="1:76" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
+    </row>
+    <row r="53" spans="1:75">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="BA53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:76" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
+    <row r="54" spans="1:75">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="BB54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:76" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
+    <row r="55" spans="1:75">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="BC55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:76" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
+    <row r="56" spans="1:75">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="BD56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:76" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>55</v>
+    <row r="57" spans="1:75">
+      <c r="A57" s="1">
+        <v>56</v>
       </c>
       <c r="BE57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:76" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>56</v>
+    <row r="58" spans="1:75">
+      <c r="A58" s="1">
+        <v>57</v>
       </c>
       <c r="BF58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:76" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>57</v>
+    <row r="59" spans="1:75">
+      <c r="A59" s="1">
+        <v>58</v>
       </c>
       <c r="BG59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:76" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>58</v>
+    <row r="60" spans="1:75">
+      <c r="A60" s="1">
+        <v>59</v>
       </c>
       <c r="BH60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:76" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>59</v>
+    <row r="61" spans="1:75">
+      <c r="A61" s="1">
+        <v>60</v>
       </c>
       <c r="BI61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:76" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>60</v>
+    <row r="62" spans="1:75">
+      <c r="A62" s="1">
+        <v>61</v>
       </c>
       <c r="BJ62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:76" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>61</v>
+    <row r="63" spans="1:75">
+      <c r="A63" s="1">
+        <v>62</v>
       </c>
       <c r="BK63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:76" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>62</v>
+    <row r="64" spans="1:75">
+      <c r="A64" s="1">
+        <v>63</v>
       </c>
       <c r="BL64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>63</v>
+    <row r="65" spans="1:81">
+      <c r="A65" s="1">
+        <v>64</v>
       </c>
       <c r="BM65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>64</v>
+    <row r="66" spans="1:81">
+      <c r="A66" s="1">
+        <v>65</v>
       </c>
       <c r="BN66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>65</v>
+    <row r="67" spans="1:81">
+      <c r="A67" s="1">
+        <v>66</v>
       </c>
       <c r="BO67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>66</v>
+    <row r="68" spans="1:81">
+      <c r="A68" s="1">
+        <v>67</v>
       </c>
       <c r="BP68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>67</v>
+    <row r="69" spans="1:81">
+      <c r="A69" s="1">
+        <v>68</v>
       </c>
       <c r="BQ69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>68</v>
+    <row r="70" spans="1:81">
+      <c r="A70" s="1">
+        <v>69</v>
       </c>
       <c r="BR70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>69</v>
+    <row r="71" spans="1:81">
+      <c r="A71" s="1">
+        <v>70</v>
       </c>
       <c r="BS71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>70</v>
+    <row r="72" spans="1:81">
+      <c r="A72" s="1">
+        <v>71</v>
       </c>
       <c r="BT72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
-        <v>71</v>
+    <row r="73" spans="1:81">
+      <c r="A73" s="1">
+        <v>73</v>
       </c>
       <c r="BU73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>72</v>
+    <row r="74" spans="1:81">
+      <c r="A74" s="1">
+        <v>74</v>
+      </c>
+      <c r="AX74">
+        <v>0.9147576778553991</v>
       </c>
       <c r="BV74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
-        <v>73</v>
+    <row r="75" spans="1:81">
+      <c r="A75" s="1">
+        <v>75</v>
       </c>
       <c r="AY75">
-        <v>0.89227453519297861</v>
+        <v>0.8017608985101162</v>
       </c>
       <c r="BW75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AZ76">
-        <v>0.80953139498123838</v>
+    <row r="76" spans="1:81">
+      <c r="A76" s="1">
+        <v>76</v>
       </c>
       <c r="BX76">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
-        <v>75</v>
+    <row r="77" spans="1:81">
+      <c r="A77" s="1">
+        <v>77</v>
       </c>
       <c r="BY77">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
-        <v>76</v>
+    <row r="78" spans="1:81">
+      <c r="A78" s="1">
+        <v>78</v>
       </c>
       <c r="BZ78">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
-        <v>77</v>
+    <row r="79" spans="1:81">
+      <c r="A79" s="1">
+        <v>79</v>
       </c>
       <c r="CA79">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>78</v>
+    <row r="80" spans="1:81">
+      <c r="A80" s="1">
+        <v>82</v>
       </c>
       <c r="CB80">
         <v>1</v>
       </c>
       <c r="CC80">
-        <v>0.60992980212591497</v>
-      </c>
-    </row>
-    <row r="81" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="R81">
-        <v>-0.61551176413822928</v>
-      </c>
-      <c r="V81">
-        <v>0.61813271351681076</v>
+        <v>0.6255546475224009</v>
+      </c>
+    </row>
+    <row r="81" spans="1:96">
+      <c r="A81" s="1">
+        <v>83</v>
       </c>
       <c r="AK81">
-        <v>0.6789780359641453</v>
-      </c>
-      <c r="AU81">
-        <v>-0.69167957506335165</v>
+        <v>0.6230584720662702</v>
+      </c>
+      <c r="AT81">
+        <v>-0.6888313029158354</v>
       </c>
       <c r="CB81">
-        <v>0.60992980212591497</v>
+        <v>0.6255546475224009</v>
       </c>
       <c r="CC81">
         <v>1</v>
       </c>
       <c r="CE81">
-        <v>0.6426990860346502</v>
-      </c>
-    </row>
-    <row r="82" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
-        <v>80</v>
+        <v>0.6538006942936567</v>
+      </c>
+    </row>
+    <row r="82" spans="1:96">
+      <c r="A82" s="1">
+        <v>84</v>
       </c>
       <c r="CD82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
-        <v>81</v>
+      <c r="CE82">
+        <v>0.6308292026284738</v>
+      </c>
+      <c r="CO82">
+        <v>-0.6002399761438691</v>
+      </c>
+    </row>
+    <row r="83" spans="1:96">
+      <c r="A83" s="1">
+        <v>85</v>
       </c>
       <c r="CC83">
-        <v>0.6426990860346502</v>
+        <v>0.6538006942936567</v>
+      </c>
+      <c r="CD83">
+        <v>0.6308292026284738</v>
       </c>
       <c r="CE83">
         <v>1</v>
       </c>
       <c r="CF83">
-        <v>0.60869203379923786</v>
-      </c>
-    </row>
-    <row r="84" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
-        <v>82</v>
+        <v>0.670949752671321</v>
+      </c>
+      <c r="CO83">
+        <v>-0.6091431111577864</v>
+      </c>
+    </row>
+    <row r="84" spans="1:96">
+      <c r="A84" s="1">
+        <v>86</v>
       </c>
       <c r="CE84">
-        <v>0.60869203379923786</v>
+        <v>0.670949752671321</v>
       </c>
       <c r="CF84">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
-        <v>83</v>
+    <row r="85" spans="1:96">
+      <c r="A85" s="1">
+        <v>87</v>
       </c>
       <c r="CG85">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
-        <v>84</v>
+    <row r="86" spans="1:96">
+      <c r="A86" s="1">
+        <v>88</v>
       </c>
       <c r="CH86">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
-        <v>85</v>
+    <row r="87" spans="1:96">
+      <c r="A87" s="1">
+        <v>89</v>
       </c>
       <c r="CI87">
         <v>1</v>
       </c>
-      <c r="CU87">
-        <v>0.65163470715062066</v>
-      </c>
-    </row>
-    <row r="88" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A88" s="3" t="s">
-        <v>86</v>
+    </row>
+    <row r="88" spans="1:96">
+      <c r="A88" s="1">
+        <v>90</v>
       </c>
       <c r="CJ88">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
-        <v>87</v>
+    <row r="89" spans="1:96">
+      <c r="A89" s="1">
+        <v>91</v>
       </c>
       <c r="CK89">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
-        <v>88</v>
+    <row r="90" spans="1:96">
+      <c r="A90" s="1">
+        <v>92</v>
       </c>
       <c r="R90">
-        <v>0.633099783947913</v>
+        <v>0.606683162428725</v>
       </c>
       <c r="CL90">
         <v>1</v>
       </c>
       <c r="CM90">
-        <v>0.62874790406652237</v>
-      </c>
-    </row>
-    <row r="91" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
-        <v>89</v>
+        <v>0.6708738817559412</v>
+      </c>
+    </row>
+    <row r="91" spans="1:96">
+      <c r="A91" s="1">
+        <v>93</v>
       </c>
       <c r="CL91">
-        <v>0.62874790406652237</v>
+        <v>0.6708738817559412</v>
       </c>
       <c r="CM91">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
-        <v>90</v>
+    <row r="92" spans="1:96">
+      <c r="A92" s="1">
+        <v>94</v>
       </c>
       <c r="CN92">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
-        <v>91</v>
+    <row r="93" spans="1:96">
+      <c r="A93" s="1">
+        <v>95</v>
+      </c>
+      <c r="CD93">
+        <v>-0.6002399761438691</v>
+      </c>
+      <c r="CE93">
+        <v>-0.6091431111577864</v>
       </c>
       <c r="CO93">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
-        <v>92</v>
+    <row r="94" spans="1:96">
+      <c r="A94" s="1">
+        <v>96</v>
       </c>
       <c r="CP94">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
-        <v>93</v>
+    <row r="95" spans="1:96">
+      <c r="A95" s="1">
+        <v>97</v>
       </c>
       <c r="CQ95">
         <v>1</v>
       </c>
       <c r="CR95">
-        <v>-0.75894663844041077</v>
-      </c>
-    </row>
-    <row r="96" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
-        <v>94</v>
+        <v>-0.7631205286037521</v>
+      </c>
+    </row>
+    <row r="96" spans="1:96">
+      <c r="A96" s="1">
+        <v>98</v>
       </c>
       <c r="CQ96">
-        <v>-0.75894663844041077</v>
+        <v>-0.7631205286037521</v>
       </c>
       <c r="CR96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:107" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
-        <v>95</v>
+    <row r="97" spans="1:107">
+      <c r="A97" s="1">
+        <v>100</v>
       </c>
       <c r="CS97">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:107" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
-        <v>96</v>
+    <row r="98" spans="1:107">
+      <c r="A98" s="1">
+        <v>101</v>
       </c>
       <c r="CT98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:107" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="CI99">
-        <v>0.65163470715062066</v>
+    <row r="99" spans="1:107">
+      <c r="A99" s="1">
+        <v>103</v>
       </c>
       <c r="CU99">
         <v>1</v>
       </c>
       <c r="DA99">
-        <v>0.70027467138588939</v>
-      </c>
-    </row>
-    <row r="100" spans="1:107" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
-        <v>98</v>
+        <v>0.7020378500174638</v>
+      </c>
+    </row>
+    <row r="100" spans="1:107">
+      <c r="A100" s="1">
+        <v>105</v>
       </c>
       <c r="CV100">
         <v>1</v>
       </c>
-      <c r="DA100">
-        <v>0.69310328008367206</v>
-      </c>
-    </row>
-    <row r="101" spans="1:107" x14ac:dyDescent="0.3">
-      <c r="A101" s="3" t="s">
-        <v>99</v>
+    </row>
+    <row r="101" spans="1:107">
+      <c r="A101" s="1">
+        <v>106</v>
       </c>
       <c r="CW101">
         <v>1</v>
       </c>
       <c r="DB101">
-        <v>-0.64510206227126099</v>
-      </c>
-    </row>
-    <row r="102" spans="1:107" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
-        <v>100</v>
+        <v>-0.6515103477574837</v>
+      </c>
+    </row>
+    <row r="102" spans="1:107">
+      <c r="A102" s="1">
+        <v>107</v>
       </c>
       <c r="CX102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:107" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
-        <v>101</v>
+    <row r="103" spans="1:107">
+      <c r="A103" s="1">
+        <v>108</v>
       </c>
       <c r="CY103">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:107" x14ac:dyDescent="0.3">
-      <c r="A104" s="3" t="s">
-        <v>102</v>
+    <row r="104" spans="1:107">
+      <c r="A104" s="1">
+        <v>111</v>
       </c>
       <c r="CZ104">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:107" x14ac:dyDescent="0.3">
-      <c r="A105" s="3" t="s">
-        <v>103</v>
+    <row r="105" spans="1:107">
+      <c r="A105" s="1">
+        <v>112</v>
       </c>
       <c r="CU105">
-        <v>0.70027467138588939</v>
-      </c>
-      <c r="CV105">
-        <v>0.69310328008367206</v>
+        <v>0.7020378500174638</v>
       </c>
       <c r="DA105">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:107" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
-        <v>104</v>
+    <row r="106" spans="1:107">
+      <c r="A106" s="1">
+        <v>113</v>
       </c>
       <c r="CW106">
-        <v>-0.64510206227126099</v>
+        <v>-0.6515103477574837</v>
       </c>
       <c r="DB106">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:107" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
-        <v>105</v>
+    <row r="107" spans="1:107">
+      <c r="A107" s="1">
+        <v>114</v>
       </c>
       <c r="DC107">
         <v>1</v>

--- a/correlations.xlsx
+++ b/correlations.xlsx
@@ -748,13 +748,13 @@
         <v>1</v>
       </c>
       <c r="R8">
-        <v>0.6365381972150619</v>
+        <v>0.6365381972150618</v>
       </c>
       <c r="S8">
-        <v>0.6132586129442053</v>
+        <v>0.613258612944205</v>
       </c>
       <c r="V8">
-        <v>-0.6414659948573709</v>
+        <v>-0.6414659948573715</v>
       </c>
     </row>
     <row r="9" spans="1:107">
@@ -765,7 +765,7 @@
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0.7166763574787074</v>
+        <v>0.7166763574787075</v>
       </c>
       <c r="O9">
         <v>0.7755969444111311</v>
@@ -792,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="I12">
-        <v>0.7166763574787074</v>
+        <v>0.7166763574787075</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="O12">
-        <v>0.6332608480475639</v>
+        <v>0.6332608480475638</v>
       </c>
     </row>
     <row r="13" spans="1:107">
@@ -817,7 +817,7 @@
         <v>1</v>
       </c>
       <c r="P14">
-        <v>-0.6562223562692989</v>
+        <v>-0.6562223562692988</v>
       </c>
     </row>
     <row r="15" spans="1:107">
@@ -828,7 +828,7 @@
         <v>0.7755969444111311</v>
       </c>
       <c r="L15">
-        <v>0.6332608480475639</v>
+        <v>0.6332608480475638</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -839,7 +839,7 @@
         <v>14</v>
       </c>
       <c r="N16">
-        <v>-0.6562223562692989</v>
+        <v>-0.6562223562692988</v>
       </c>
       <c r="P16">
         <v>1</v>
@@ -861,7 +861,7 @@
         <v>16</v>
       </c>
       <c r="H18">
-        <v>0.6365381972150619</v>
+        <v>0.6365381972150618</v>
       </c>
       <c r="Q18">
         <v>0.7162310341964813</v>
@@ -870,19 +870,19 @@
         <v>1</v>
       </c>
       <c r="S18">
-        <v>0.6777355571060921</v>
+        <v>0.677735557106092</v>
       </c>
       <c r="V18">
-        <v>-0.648698130076439</v>
+        <v>-0.6486981300764386</v>
       </c>
       <c r="AL18">
-        <v>-0.608408273255472</v>
+        <v>-0.6084082732554718</v>
       </c>
       <c r="AT18">
-        <v>0.7797592629489798</v>
+        <v>0.7797592629489805</v>
       </c>
       <c r="CL18">
-        <v>0.606683162428725</v>
+        <v>0.6066831624287252</v>
       </c>
     </row>
     <row r="19" spans="1:90">
@@ -890,16 +890,16 @@
         <v>17</v>
       </c>
       <c r="H19">
-        <v>0.6132586129442053</v>
+        <v>0.613258612944205</v>
       </c>
       <c r="R19">
-        <v>0.6777355571060921</v>
+        <v>0.677735557106092</v>
       </c>
       <c r="S19">
         <v>1</v>
       </c>
       <c r="V19">
-        <v>-0.6160233111876382</v>
+        <v>-0.6160233111876379</v>
       </c>
     </row>
     <row r="20" spans="1:90">
@@ -923,13 +923,13 @@
         <v>20</v>
       </c>
       <c r="H22">
-        <v>-0.6414659948573709</v>
+        <v>-0.6414659948573715</v>
       </c>
       <c r="R22">
-        <v>-0.648698130076439</v>
+        <v>-0.6486981300764386</v>
       </c>
       <c r="S22">
-        <v>-0.6160233111876382</v>
+        <v>-0.6160233111876379</v>
       </c>
       <c r="V22">
         <v>1</v>
@@ -951,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="Z24">
-        <v>0.6613560291307095</v>
+        <v>0.6613560291307092</v>
       </c>
     </row>
     <row r="25" spans="1:90">
@@ -967,7 +967,7 @@
         <v>24</v>
       </c>
       <c r="X26">
-        <v>0.6613560291307095</v>
+        <v>0.6613560291307092</v>
       </c>
       <c r="Z26">
         <v>1</v>
@@ -1005,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="AU30">
-        <v>-0.6681711517182953</v>
+        <v>-0.6681711517182958</v>
       </c>
     </row>
     <row r="31" spans="1:90">
@@ -1016,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="AN31">
-        <v>-0.73804387753986</v>
+        <v>-0.7380438775398602</v>
       </c>
     </row>
     <row r="32" spans="1:90">
@@ -1027,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="AG32">
-        <v>0.6062695069799401</v>
+        <v>0.6062695069799399</v>
       </c>
     </row>
     <row r="33" spans="1:81">
@@ -1035,7 +1035,7 @@
         <v>31</v>
       </c>
       <c r="AF33">
-        <v>0.6062695069799401</v>
+        <v>0.6062695069799399</v>
       </c>
       <c r="AG33">
         <v>1</v>
@@ -1076,10 +1076,10 @@
         <v>1</v>
       </c>
       <c r="AT37">
-        <v>-0.6522523634610914</v>
+        <v>-0.6522523634610912</v>
       </c>
       <c r="CC37">
-        <v>0.6230584720662702</v>
+        <v>0.6230584720662706</v>
       </c>
     </row>
     <row r="38" spans="1:81">
@@ -1087,7 +1087,7 @@
         <v>36</v>
       </c>
       <c r="R38">
-        <v>-0.608408273255472</v>
+        <v>-0.6084082732554718</v>
       </c>
       <c r="AL38">
         <v>1</v>
@@ -1112,7 +1112,7 @@
         <v>38</v>
       </c>
       <c r="AE40">
-        <v>-0.73804387753986</v>
+        <v>-0.7380438775398602</v>
       </c>
       <c r="AN40">
         <v>1</v>
@@ -1163,16 +1163,16 @@
         <v>44</v>
       </c>
       <c r="R46">
-        <v>0.7797592629489798</v>
+        <v>0.7797592629489805</v>
       </c>
       <c r="AK46">
-        <v>-0.6522523634610914</v>
+        <v>-0.6522523634610912</v>
       </c>
       <c r="AT46">
         <v>1</v>
       </c>
       <c r="CC46">
-        <v>-0.6888313029158354</v>
+        <v>-0.6888313029158353</v>
       </c>
     </row>
     <row r="47" spans="1:81">
@@ -1180,7 +1180,7 @@
         <v>45</v>
       </c>
       <c r="AD47">
-        <v>-0.6681711517182953</v>
+        <v>-0.6681711517182958</v>
       </c>
       <c r="AL47">
         <v>-0.6490758693711466</v>
@@ -1213,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="BV50">
-        <v>0.9147576778553991</v>
+        <v>0.9147576778553992</v>
       </c>
     </row>
     <row r="51" spans="1:75">
@@ -1408,7 +1408,7 @@
         <v>74</v>
       </c>
       <c r="AX74">
-        <v>0.9147576778553991</v>
+        <v>0.9147576778553992</v>
       </c>
       <c r="BV74">
         <v>1</v>
@@ -1465,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="CC80">
-        <v>0.6255546475224009</v>
+        <v>0.625554647522401</v>
       </c>
     </row>
     <row r="81" spans="1:96">
@@ -1473,13 +1473,13 @@
         <v>83</v>
       </c>
       <c r="AK81">
-        <v>0.6230584720662702</v>
+        <v>0.6230584720662706</v>
       </c>
       <c r="AT81">
-        <v>-0.6888313029158354</v>
+        <v>-0.6888313029158353</v>
       </c>
       <c r="CB81">
-        <v>0.6255546475224009</v>
+        <v>0.625554647522401</v>
       </c>
       <c r="CC81">
         <v>1</v>
@@ -1496,7 +1496,7 @@
         <v>1</v>
       </c>
       <c r="CE82">
-        <v>0.6308292026284738</v>
+        <v>0.6308292026284736</v>
       </c>
       <c r="CO82">
         <v>-0.6002399761438691</v>
@@ -1510,16 +1510,16 @@
         <v>0.6538006942936567</v>
       </c>
       <c r="CD83">
-        <v>0.6308292026284738</v>
+        <v>0.6308292026284736</v>
       </c>
       <c r="CE83">
         <v>1</v>
       </c>
       <c r="CF83">
-        <v>0.670949752671321</v>
+        <v>0.6709497526713211</v>
       </c>
       <c r="CO83">
-        <v>-0.6091431111577864</v>
+        <v>-0.6091431111577862</v>
       </c>
     </row>
     <row r="84" spans="1:96">
@@ -1527,7 +1527,7 @@
         <v>86</v>
       </c>
       <c r="CE84">
-        <v>0.670949752671321</v>
+        <v>0.6709497526713211</v>
       </c>
       <c r="CF84">
         <v>1</v>
@@ -1578,13 +1578,13 @@
         <v>92</v>
       </c>
       <c r="R90">
-        <v>0.606683162428725</v>
+        <v>0.6066831624287252</v>
       </c>
       <c r="CL90">
         <v>1</v>
       </c>
       <c r="CM90">
-        <v>0.6708738817559412</v>
+        <v>0.6708738817559405</v>
       </c>
     </row>
     <row r="91" spans="1:96">
@@ -1592,7 +1592,7 @@
         <v>93</v>
       </c>
       <c r="CL91">
-        <v>0.6708738817559412</v>
+        <v>0.6708738817559405</v>
       </c>
       <c r="CM91">
         <v>1</v>
@@ -1614,7 +1614,7 @@
         <v>-0.6002399761438691</v>
       </c>
       <c r="CE93">
-        <v>-0.6091431111577864</v>
+        <v>-0.6091431111577862</v>
       </c>
       <c r="CO93">
         <v>1</v>
@@ -1636,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="CR95">
-        <v>-0.7631205286037521</v>
+        <v>-0.7631205286037525</v>
       </c>
     </row>
     <row r="96" spans="1:96">
@@ -1644,7 +1644,7 @@
         <v>98</v>
       </c>
       <c r="CQ96">
-        <v>-0.7631205286037521</v>
+        <v>-0.7631205286037525</v>
       </c>
       <c r="CR96">
         <v>1</v>
@@ -1693,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="DB101">
-        <v>-0.6515103477574837</v>
+        <v>-0.6515103477574835</v>
       </c>
     </row>
     <row r="102" spans="1:107">
@@ -1736,7 +1736,7 @@
         <v>113</v>
       </c>
       <c r="CW106">
-        <v>-0.6515103477574837</v>
+        <v>-0.6515103477574835</v>
       </c>
       <c r="DB106">
         <v>1</v>

--- a/correlations.xlsx
+++ b/correlations.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DC107"/>
+  <dimension ref="A1:DJ114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:107">
+    <row r="1" spans="1:114">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -539,7 +539,7 @@
         <v>54</v>
       </c>
       <c r="BE1" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BF1" s="1">
         <v>57</v>
@@ -587,7 +587,7 @@
         <v>71</v>
       </c>
       <c r="BU1" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BV1" s="1">
         <v>74</v>
@@ -608,7 +608,7 @@
         <v>79</v>
       </c>
       <c r="CB1" s="1">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="CC1" s="1">
         <v>83</v>
@@ -659,40 +659,61 @@
         <v>98</v>
       </c>
       <c r="CS1" s="1">
+        <v>99</v>
+      </c>
+      <c r="CT1" s="1">
         <v>100</v>
       </c>
-      <c r="CT1" s="1">
+      <c r="CU1" s="1">
         <v>101</v>
       </c>
-      <c r="CU1" s="1">
+      <c r="CV1" s="1">
+        <v>102</v>
+      </c>
+      <c r="CW1" s="1">
         <v>103</v>
       </c>
-      <c r="CV1" s="1">
-        <v>105</v>
-      </c>
-      <c r="CW1" s="1">
+      <c r="CX1" s="1">
+        <v>104</v>
+      </c>
+      <c r="CY1" s="1">
         <v>106</v>
       </c>
-      <c r="CX1" s="1">
+      <c r="CZ1" s="1">
         <v>107</v>
       </c>
-      <c r="CY1" s="1">
-        <v>108</v>
-      </c>
-      <c r="CZ1" s="1">
+      <c r="DA1" s="1">
+        <v>109</v>
+      </c>
+      <c r="DB1" s="1">
         <v>111</v>
       </c>
-      <c r="DA1" s="1">
+      <c r="DC1" s="1">
         <v>112</v>
       </c>
-      <c r="DB1" s="1">
+      <c r="DD1" s="1">
         <v>113</v>
       </c>
-      <c r="DC1" s="1">
+      <c r="DE1" s="1">
         <v>114</v>
       </c>
-    </row>
-    <row r="2" spans="1:107">
+      <c r="DF1" s="1">
+        <v>117</v>
+      </c>
+      <c r="DG1" s="1">
+        <v>118</v>
+      </c>
+      <c r="DH1" s="1">
+        <v>119</v>
+      </c>
+      <c r="DI1" s="1">
+        <v>120</v>
+      </c>
+      <c r="DJ1" s="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:114">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -700,7 +721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:107">
+    <row r="3" spans="1:114">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -708,7 +729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:107">
+    <row r="4" spans="1:114">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -716,7 +737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:107">
+    <row r="5" spans="1:114">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -724,7 +745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:107">
+    <row r="6" spans="1:114">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -732,7 +753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:107">
+    <row r="7" spans="1:114">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -740,7 +761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:107">
+    <row r="8" spans="1:114">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -757,7 +778,7 @@
         <v>-0.6414659948573715</v>
       </c>
     </row>
-    <row r="9" spans="1:107">
+    <row r="9" spans="1:114">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -771,7 +792,7 @@
         <v>0.7755969444111311</v>
       </c>
     </row>
-    <row r="10" spans="1:107">
+    <row r="10" spans="1:114">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -779,7 +800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:107">
+    <row r="11" spans="1:114">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,7 +808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:107">
+    <row r="12" spans="1:114">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -801,7 +822,7 @@
         <v>0.6332608480475638</v>
       </c>
     </row>
-    <row r="13" spans="1:107">
+    <row r="13" spans="1:114">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -809,7 +830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:107">
+    <row r="14" spans="1:114">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -820,7 +841,7 @@
         <v>-0.6562223562692988</v>
       </c>
     </row>
-    <row r="15" spans="1:107">
+    <row r="15" spans="1:114">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -834,7 +855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:107">
+    <row r="16" spans="1:114">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -845,7 +866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:90">
+    <row r="17" spans="1:92">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -856,7 +877,7 @@
         <v>0.7162310341964813</v>
       </c>
     </row>
-    <row r="18" spans="1:90">
+    <row r="18" spans="1:92">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -878,14 +899,14 @@
       <c r="AL18">
         <v>-0.6084082732554718</v>
       </c>
-      <c r="AT18">
-        <v>0.7797592629489805</v>
-      </c>
-      <c r="CL18">
+      <c r="AU18">
+        <v>0.7646352272557747</v>
+      </c>
+      <c r="CN18">
         <v>0.6066831624287252</v>
       </c>
     </row>
-    <row r="19" spans="1:90">
+    <row r="19" spans="1:92">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -902,7 +923,7 @@
         <v>-0.6160233111876379</v>
       </c>
     </row>
-    <row r="20" spans="1:90">
+    <row r="20" spans="1:92">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -910,7 +931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:90">
+    <row r="21" spans="1:92">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -918,7 +939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:90">
+    <row r="22" spans="1:92">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -935,7 +956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:90">
+    <row r="23" spans="1:92">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -943,7 +964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:90">
+    <row r="24" spans="1:92">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -954,7 +975,7 @@
         <v>0.6613560291307092</v>
       </c>
     </row>
-    <row r="25" spans="1:90">
+    <row r="25" spans="1:92">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -962,7 +983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:90">
+    <row r="26" spans="1:92">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -973,7 +994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:90">
+    <row r="27" spans="1:92">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -981,7 +1002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:90">
+    <row r="28" spans="1:92">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -989,7 +1010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:90">
+    <row r="29" spans="1:92">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -997,29 +1018,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:90">
+    <row r="30" spans="1:92">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="AD30">
         <v>1</v>
       </c>
-      <c r="AU30">
-        <v>-0.6681711517182958</v>
-      </c>
-    </row>
-    <row r="31" spans="1:90">
+      <c r="AV30">
+        <v>-0.6679152928612062</v>
+      </c>
+    </row>
+    <row r="31" spans="1:92">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="AE31">
         <v>1</v>
       </c>
-      <c r="AN31">
-        <v>-0.7380438775398602</v>
-      </c>
-    </row>
-    <row r="32" spans="1:90">
+      <c r="AO31">
+        <v>-0.7380421895001509</v>
+      </c>
+    </row>
+    <row r="32" spans="1:92">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1030,7 +1051,7 @@
         <v>0.6062695069799399</v>
       </c>
     </row>
-    <row r="33" spans="1:81">
+    <row r="33" spans="1:83">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1041,7 +1062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:81">
+    <row r="34" spans="1:83">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1049,7 +1070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:81">
+    <row r="35" spans="1:83">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1057,7 +1078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:81">
+    <row r="36" spans="1:83">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1068,21 +1089,21 @@
         <v>0.6601823935003379</v>
       </c>
     </row>
-    <row r="37" spans="1:81">
+    <row r="37" spans="1:83">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="AK37">
         <v>1</v>
       </c>
-      <c r="AT37">
-        <v>-0.6522523634610912</v>
-      </c>
-      <c r="CC37">
+      <c r="AU37">
+        <v>-0.6510943241483336</v>
+      </c>
+      <c r="CE37">
         <v>0.6230584720662706</v>
       </c>
     </row>
-    <row r="38" spans="1:81">
+    <row r="38" spans="1:83">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1092,11 +1113,11 @@
       <c r="AL38">
         <v>1</v>
       </c>
-      <c r="AU38">
-        <v>-0.6490758693711466</v>
-      </c>
-    </row>
-    <row r="39" spans="1:81">
+      <c r="AV38">
+        <v>-0.6435945040854125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:83">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1107,26 +1128,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:81">
+    <row r="40" spans="1:83">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="AE40">
-        <v>-0.7380438775398602</v>
-      </c>
       <c r="AN40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:81">
+    <row r="41" spans="1:83">
       <c r="A41" s="1">
         <v>39</v>
       </c>
+      <c r="AE41">
+        <v>-0.7380421895001509</v>
+      </c>
       <c r="AO41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:81">
+    <row r="42" spans="1:83">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1134,7 +1155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:81">
+    <row r="43" spans="1:83">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1142,7 +1163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:81">
+    <row r="44" spans="1:83">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1150,7 +1171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:81">
+    <row r="45" spans="1:83">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1158,46 +1179,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:81">
+    <row r="46" spans="1:83">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="R46">
-        <v>0.7797592629489805</v>
-      </c>
-      <c r="AK46">
-        <v>-0.6522523634610912</v>
-      </c>
       <c r="AT46">
         <v>1</v>
       </c>
-      <c r="CC46">
-        <v>-0.6888313029158353</v>
-      </c>
-    </row>
-    <row r="47" spans="1:81">
+    </row>
+    <row r="47" spans="1:83">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="AD47">
-        <v>-0.6681711517182958</v>
-      </c>
-      <c r="AL47">
-        <v>-0.6490758693711466</v>
+      <c r="R47">
+        <v>0.7646352272557747</v>
+      </c>
+      <c r="AK47">
+        <v>-0.6510943241483336</v>
       </c>
       <c r="AU47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:81">
+      <c r="CE47">
+        <v>-0.6782103370629281</v>
+      </c>
+    </row>
+    <row r="48" spans="1:83">
       <c r="A48" s="1">
         <v>46</v>
       </c>
+      <c r="AD48">
+        <v>-0.6679152928612062</v>
+      </c>
+      <c r="AL48">
+        <v>-0.6435945040854125</v>
+      </c>
       <c r="AV48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:75">
+    <row r="49" spans="1:76">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1205,18 +1226,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:75">
+    <row r="50" spans="1:76">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="AX50">
         <v>1</v>
       </c>
-      <c r="BV50">
-        <v>0.9147576778553992</v>
-      </c>
-    </row>
-    <row r="51" spans="1:75">
+    </row>
+    <row r="51" spans="1:76">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1224,18 +1242,21 @@
         <v>1</v>
       </c>
       <c r="BW51">
-        <v>0.8017608985101162</v>
-      </c>
-    </row>
-    <row r="52" spans="1:75">
+        <v>0.9147576778553992</v>
+      </c>
+    </row>
+    <row r="52" spans="1:76">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="AZ52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:75">
+      <c r="BX52">
+        <v>0.8017608985101162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:76">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1243,7 +1264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:75">
+    <row r="54" spans="1:76">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1251,7 +1272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:75">
+    <row r="55" spans="1:76">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1259,7 +1280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:75">
+    <row r="56" spans="1:76">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1267,15 +1288,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:75">
+    <row r="57" spans="1:76">
       <c r="A57" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BE57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:75">
+    <row r="58" spans="1:76">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1283,7 +1304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:75">
+    <row r="59" spans="1:76">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1291,7 +1312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:75">
+    <row r="60" spans="1:76">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1299,7 +1320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:75">
+    <row r="61" spans="1:76">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -1307,7 +1328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:75">
+    <row r="62" spans="1:76">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -1315,7 +1336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:75">
+    <row r="63" spans="1:76">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -1323,7 +1344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:75">
+    <row r="64" spans="1:76">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -1370,6 +1391,9 @@
       <c r="BQ69">
         <v>1</v>
       </c>
+      <c r="CC69">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:81">
       <c r="A70" s="1">
@@ -1397,7 +1421,7 @@
     </row>
     <row r="73" spans="1:81">
       <c r="A73" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BU73">
         <v>1</v>
@@ -1407,9 +1431,6 @@
       <c r="A74" s="1">
         <v>74</v>
       </c>
-      <c r="AX74">
-        <v>0.9147576778553992</v>
-      </c>
       <c r="BV74">
         <v>1</v>
       </c>
@@ -1419,7 +1440,7 @@
         <v>75</v>
       </c>
       <c r="AY75">
-        <v>0.8017608985101162</v>
+        <v>0.9147576778553992</v>
       </c>
       <c r="BW75">
         <v>1</v>
@@ -1429,6 +1450,9 @@
       <c r="A76" s="1">
         <v>76</v>
       </c>
+      <c r="AZ76">
+        <v>0.8017608985101162</v>
+      </c>
       <c r="BX76">
         <v>1</v>
       </c>
@@ -1459,33 +1483,21 @@
     </row>
     <row r="80" spans="1:81">
       <c r="A80" s="1">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="CB80">
         <v>1</v>
-      </c>
-      <c r="CC80">
-        <v>0.625554647522401</v>
       </c>
     </row>
     <row r="81" spans="1:96">
       <c r="A81" s="1">
         <v>83</v>
       </c>
-      <c r="AK81">
-        <v>0.6230584720662706</v>
-      </c>
-      <c r="AT81">
-        <v>-0.6888313029158353</v>
-      </c>
-      <c r="CB81">
-        <v>0.625554647522401</v>
+      <c r="BQ81">
+        <v>1</v>
       </c>
       <c r="CC81">
         <v>1</v>
-      </c>
-      <c r="CE81">
-        <v>0.6538006942936567</v>
       </c>
     </row>
     <row r="82" spans="1:96">
@@ -1496,55 +1508,70 @@
         <v>1</v>
       </c>
       <c r="CE82">
-        <v>0.6308292026284736</v>
-      </c>
-      <c r="CO82">
-        <v>-0.6002399761438691</v>
+        <v>0.625554647522401</v>
       </c>
     </row>
     <row r="83" spans="1:96">
       <c r="A83" s="1">
         <v>85</v>
       </c>
-      <c r="CC83">
+      <c r="AK83">
+        <v>0.6230584720662706</v>
+      </c>
+      <c r="AU83">
+        <v>-0.6782103370629281</v>
+      </c>
+      <c r="CD83">
+        <v>0.625554647522401</v>
+      </c>
+      <c r="CE83">
+        <v>1</v>
+      </c>
+      <c r="CG83">
         <v>0.6538006942936567</v>
-      </c>
-      <c r="CD83">
-        <v>0.6308292026284736</v>
-      </c>
-      <c r="CE83">
-        <v>1</v>
-      </c>
-      <c r="CF83">
-        <v>0.6709497526713211</v>
-      </c>
-      <c r="CO83">
-        <v>-0.6091431111577862</v>
       </c>
     </row>
     <row r="84" spans="1:96">
       <c r="A84" s="1">
         <v>86</v>
       </c>
-      <c r="CE84">
-        <v>0.6709497526713211</v>
-      </c>
       <c r="CF84">
         <v>1</v>
+      </c>
+      <c r="CG84">
+        <v>0.6308292026284736</v>
+      </c>
+      <c r="CQ84">
+        <v>-0.6002399761438691</v>
       </c>
     </row>
     <row r="85" spans="1:96">
       <c r="A85" s="1">
         <v>87</v>
       </c>
+      <c r="CE85">
+        <v>0.6538006942936567</v>
+      </c>
+      <c r="CF85">
+        <v>0.6308292026284736</v>
+      </c>
       <c r="CG85">
         <v>1</v>
+      </c>
+      <c r="CH85">
+        <v>0.6709497526713211</v>
+      </c>
+      <c r="CQ85">
+        <v>-0.6091431111577862</v>
       </c>
     </row>
     <row r="86" spans="1:96">
       <c r="A86" s="1">
         <v>88</v>
       </c>
+      <c r="CG86">
+        <v>0.6709497526713211</v>
+      </c>
       <c r="CH86">
         <v>1</v>
       </c>
@@ -1577,23 +1604,14 @@
       <c r="A90" s="1">
         <v>92</v>
       </c>
-      <c r="R90">
-        <v>0.6066831624287252</v>
-      </c>
       <c r="CL90">
         <v>1</v>
-      </c>
-      <c r="CM90">
-        <v>0.6708738817559405</v>
       </c>
     </row>
     <row r="91" spans="1:96">
       <c r="A91" s="1">
         <v>93</v>
       </c>
-      <c r="CL91">
-        <v>0.6708738817559405</v>
-      </c>
       <c r="CM91">
         <v>1</v>
       </c>
@@ -1602,19 +1620,22 @@
       <c r="A92" s="1">
         <v>94</v>
       </c>
+      <c r="R92">
+        <v>0.6066831624287252</v>
+      </c>
       <c r="CN92">
         <v>1</v>
+      </c>
+      <c r="CO92">
+        <v>0.6708738817559405</v>
       </c>
     </row>
     <row r="93" spans="1:96">
       <c r="A93" s="1">
         <v>95</v>
       </c>
-      <c r="CD93">
-        <v>-0.6002399761438691</v>
-      </c>
-      <c r="CE93">
-        <v>-0.6091431111577862</v>
+      <c r="CN93">
+        <v>0.6708738817559405</v>
       </c>
       <c r="CO93">
         <v>1</v>
@@ -1632,121 +1653,183 @@
       <c r="A95" s="1">
         <v>97</v>
       </c>
+      <c r="CF95">
+        <v>-0.6002399761438691</v>
+      </c>
+      <c r="CG95">
+        <v>-0.6091431111577862</v>
+      </c>
       <c r="CQ95">
         <v>1</v>
-      </c>
-      <c r="CR95">
-        <v>-0.7631205286037525</v>
       </c>
     </row>
     <row r="96" spans="1:96">
       <c r="A96" s="1">
         <v>98</v>
       </c>
-      <c r="CQ96">
+      <c r="CR96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:112">
+      <c r="A97" s="1">
+        <v>99</v>
+      </c>
+      <c r="CS97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:112">
+      <c r="A98" s="1">
+        <v>100</v>
+      </c>
+      <c r="CT98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:112">
+      <c r="A99" s="1">
+        <v>101</v>
+      </c>
+      <c r="CU99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:112">
+      <c r="A100" s="1">
+        <v>102</v>
+      </c>
+      <c r="CV100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:112">
+      <c r="A101" s="1">
+        <v>103</v>
+      </c>
+      <c r="CW101">
+        <v>1</v>
+      </c>
+      <c r="CX101">
         <v>-0.7631205286037525</v>
       </c>
-      <c r="CR96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:107">
-      <c r="A97" s="1">
-        <v>100</v>
-      </c>
-      <c r="CS97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:107">
-      <c r="A98" s="1">
-        <v>101</v>
-      </c>
-      <c r="CT98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:107">
-      <c r="A99" s="1">
-        <v>103</v>
-      </c>
-      <c r="CU99">
-        <v>1</v>
-      </c>
-      <c r="DA99">
+    </row>
+    <row r="102" spans="1:112">
+      <c r="A102" s="1">
+        <v>104</v>
+      </c>
+      <c r="CW102">
+        <v>-0.7631205286037525</v>
+      </c>
+      <c r="CX102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:112">
+      <c r="A103" s="1">
+        <v>106</v>
+      </c>
+      <c r="CY103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:112">
+      <c r="A104" s="1">
+        <v>107</v>
+      </c>
+      <c r="CZ104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:112">
+      <c r="A105" s="1">
+        <v>109</v>
+      </c>
+      <c r="DA105">
+        <v>1</v>
+      </c>
+      <c r="DG105">
         <v>0.7020378500174638</v>
       </c>
     </row>
-    <row r="100" spans="1:107">
-      <c r="A100" s="1">
-        <v>105</v>
-      </c>
-      <c r="CV100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:107">
-      <c r="A101" s="1">
-        <v>106</v>
-      </c>
-      <c r="CW101">
-        <v>1</v>
-      </c>
-      <c r="DB101">
+    <row r="106" spans="1:112">
+      <c r="A106" s="1">
+        <v>111</v>
+      </c>
+      <c r="DB106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:112">
+      <c r="A107" s="1">
+        <v>112</v>
+      </c>
+      <c r="DC107">
+        <v>1</v>
+      </c>
+      <c r="DH107">
         <v>-0.6515103477574835</v>
       </c>
     </row>
-    <row r="102" spans="1:107">
-      <c r="A102" s="1">
-        <v>107</v>
-      </c>
-      <c r="CX102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:107">
-      <c r="A103" s="1">
-        <v>108</v>
-      </c>
-      <c r="CY103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:107">
-      <c r="A104" s="1">
-        <v>111</v>
-      </c>
-      <c r="CZ104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:107">
-      <c r="A105" s="1">
-        <v>112</v>
-      </c>
-      <c r="CU105">
+    <row r="108" spans="1:112">
+      <c r="A108" s="1">
+        <v>113</v>
+      </c>
+      <c r="DD108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:112">
+      <c r="A109" s="1">
+        <v>114</v>
+      </c>
+      <c r="DE109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:112">
+      <c r="A110" s="1">
+        <v>117</v>
+      </c>
+      <c r="DF110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:112">
+      <c r="A111" s="1">
+        <v>118</v>
+      </c>
+      <c r="DA111">
         <v>0.7020378500174638</v>
       </c>
-      <c r="DA105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:107">
-      <c r="A106" s="1">
-        <v>113</v>
-      </c>
-      <c r="CW106">
+      <c r="DG111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:112">
+      <c r="A112" s="1">
+        <v>119</v>
+      </c>
+      <c r="DC112">
         <v>-0.6515103477574835</v>
       </c>
-      <c r="DB106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:107">
-      <c r="A107" s="1">
-        <v>114</v>
-      </c>
-      <c r="DC107">
+      <c r="DH112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:114">
+      <c r="A113" s="1">
+        <v>120</v>
+      </c>
+      <c r="DI113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:114">
+      <c r="A114" s="1">
+        <v>121</v>
+      </c>
+      <c r="DJ114">
         <v>1</v>
       </c>
     </row>
